--- a/data/case1/18/Qlm1_13.xlsx
+++ b/data/case1/18/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.081202724996835229</v>
+        <v>-0.11035056273264843</v>
       </c>
       <c r="B1" s="0">
-        <v>0.081179968004711611</v>
+        <v>0.11029317439567166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.068192933389909172</v>
+        <v>-0.10139496781091228</v>
       </c>
       <c r="B2" s="0">
-        <v>0.068121368028353224</v>
+        <v>0.10123431003982386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.018423183913414576</v>
+        <v>-0.051533041652325196</v>
       </c>
       <c r="B3" s="0">
-        <v>0.018288857697010386</v>
+        <v>0.051376120551628546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.010288857805349494</v>
+        <v>-0.043376120604166957</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0099104971741290626</v>
+        <v>0.042963717539567625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0069104972222246985</v>
+        <v>-0.039963717565440149</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0056197047221653307</v>
+        <v>0.038563281875277688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.023273465451588038</v>
+        <v>-0.030260325930264287</v>
       </c>
       <c r="B6" s="0">
-        <v>0.022990885843023889</v>
+        <v>0.030015671813698575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.012990885981339684</v>
+        <v>-0.020015671884376474</v>
       </c>
       <c r="B7" s="0">
-        <v>0.012932444514694108</v>
+        <v>0.019968412303628558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0029324446551890482</v>
+        <v>-0.0099684123757968202</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0028519048519952683</v>
+        <v>0.0099142858296334957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00085190489521380641</v>
+        <v>-0.007914285857660186</v>
       </c>
       <c r="B9" s="0">
-        <v>0.000793608389681566</v>
+        <v>0.0078787223074940904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0012063915667397396</v>
+        <v>-0.027397979469913736</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0012064482896327888</v>
+        <v>0.027382843060440365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0042064482337726972</v>
+        <v>-0.024382843095390072</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0042097048238343149</v>
+        <v>0.024357179507537907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0077097047621572656</v>
+        <v>-0.020857179546180937</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0077395409760754319</v>
+        <v>0.020667009950566584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.011239540917157953</v>
+        <v>-0.017167009992888005</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.011251516387497773</v>
+        <v>0.017080445201885119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.019251516274643166</v>
+        <v>-0.0090804452707251571</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.019262983170110104</v>
+        <v>0.0090522135904889112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.020262983145677538</v>
+        <v>-0.0080522136202301198</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.020277866903584574</v>
+        <v>0.0080339887905322982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.022277866870206608</v>
+        <v>-0.0060339888265481534</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.022349374048649118</v>
+        <v>0.0060034072144383721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040027490394178855</v>
+        <v>-0.0040034072513561725</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999487969617</v>
+        <v>0.003999999951511235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0069870346892955126</v>
+        <v>-0.0028982066194487288</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0069575108508779238</v>
+        <v>0.0028292071747486602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0029575109010835376</v>
+        <v>0.001170792801813203</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0027325207541224472</v>
+        <v>-0.0016699561129631668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080152432272004859</v>
+        <v>0.0056699560893562762</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080053931492418684</v>
+        <v>-0.0058070066997650827</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040053932020054361</v>
+        <v>0.0098070066763202846</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999467186242</v>
+        <v>-0.010013515737603562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045698184172383804</v>
+        <v>-0.045701268415552221</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045489604597461764</v>
+        <v>0.045491227906605758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040489604671118506</v>
+        <v>-0.040491227942330177</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040096891697219306</v>
+        <v>0.04009744943842275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020096891963811814</v>
+        <v>-0.020097449563091452</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999972904476</v>
+        <v>0.019999999873585139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.016921763680896262</v>
+        <v>-0.0063029559696730075</v>
       </c>
       <c r="B25" s="0">
-        <v>0.016845217725927952</v>
+        <v>0.0062473660987034663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.018532206727666534</v>
+        <v>-0.0037473661263405234</v>
       </c>
       <c r="B26" s="0">
-        <v>0.018443513684651691</v>
+        <v>0.0036784509599474546</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.015943513731516479</v>
+        <v>-0.0011784509877026395</v>
       </c>
       <c r="B27" s="0">
-        <v>0.015425503289555831</v>
+        <v>0.00078629441637056985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0134255033356947</v>
+        <v>0.0012137055584071632</v>
       </c>
       <c r="B28" s="0">
-        <v>0.013088227110443107</v>
+        <v>-0.0014653052578417203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0060882272212214872</v>
+        <v>0.0077425992366801921</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0059994411556925087</v>
+        <v>-0.0078120929289555718</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.054000558082127004</v>
+        <v>-0.021164315503148678</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.054361332976990528</v>
+        <v>0.02102234822644844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.061361332880114361</v>
+        <v>-0.014022348281992336</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.061481650347937844</v>
+        <v>0.01400121845380653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.071481650218684578</v>
+        <v>-0.004001218526784811</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.071668006211710988</v>
+        <v>0.0039999999609374726</v>
       </c>
     </row>
   </sheetData>
